--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480518.8260178552</v>
+        <v>475930.5439938536</v>
       </c>
     </row>
     <row r="7">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.5281633465511</v>
+        <v>140.6204626048485</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>148.5425944048886</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>262.9347006707482</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>198.1536544104975</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>142.7928034229494</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5586552275284</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>194.3768488495479</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>243.0153142244804</v>
       </c>
       <c r="H17" t="n">
-        <v>204.5281633465511</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>37.85439731228686</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>161.7548335977744</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>114.0468856911601</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>266.8609260236215</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>215.8806827417343</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>242.4613866221823</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5900972850689</v>
+        <v>38.37745272946171</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>15.24679050804988</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,7 +2484,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>68.78230990437203</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3271665015756</v>
+        <v>15.85005937638025</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>286.6163884919119</v>
       </c>
       <c r="E26" t="n">
-        <v>110.9086650137662</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.6851953721275</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2718,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>42.2016060239241</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H28" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U28" t="n">
         <v>277.3271665015756</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9973333060299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2797,7 +2797,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>63.68091937886295</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>314.3363041245494</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>48.00577911069197</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>30.27133425542424</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3271665015756</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>74.52796942335212</v>
+        <v>314.3363041245494</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.41191805707933</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3207,7 +3207,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>68.2063336752453</v>
+        <v>24.13736600677484</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U34" t="n">
         <v>277.3271665015756</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>103.9285842311218</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>114.7630552159517</v>
       </c>
       <c r="G35" t="n">
         <v>398.0298839804087</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>33.77506671175936</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>71.00223220056269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.5780456014529</v>
@@ -3474,10 +3474,10 @@
         <v>0.8692371952047111</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U37" t="n">
         <v>277.3271665015756</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>126.0909721231867</v>
       </c>
       <c r="F38" t="n">
-        <v>95.6984512486835</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.0298839804087</v>
       </c>
       <c r="H38" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.82384198018588</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5633491017144</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>138.0556788634409</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>63.07107366043223</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>282.6234787695106</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>22.81287313048072</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3915,7 +3915,7 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H43" t="n">
-        <v>70.59083476793809</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
         <v>68.2063336752453</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>11.98893782334361</v>
+        <v>80.84687092262372</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.0298839804087</v>
@@ -4030,22 +4030,22 @@
         <v>51.69198155551913</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4152,7 +4152,7 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3219911678582</v>
+        <v>75.29887283390029</v>
       </c>
       <c r="I46" t="n">
         <v>68.2063336752453</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U46" t="n">
-        <v>28.33406785093919</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839228</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27616607839228</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149077</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5080,13 +5080,13 @@
         <v>1456.318889045863</v>
       </c>
       <c r="W11" t="n">
-        <v>1059.92753934621</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="X11" t="n">
-        <v>648.2075405139576</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.8702704688479</v>
+        <v>1456.318889045863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5120,52 +5120,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>590.33890554562</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>805.6029553320593</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.877653813074</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.0954564501385</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="C13" t="n">
-        <v>578.0954564501385</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D13" t="n">
-        <v>414.7786835769092</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E13" t="n">
-        <v>414.7786835769092</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>834.8346997140877</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M13" t="n">
-        <v>932.8880472917069</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.831680612252</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O13" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097734</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1125.397530580239</v>
+        <v>1423.774445099808</v>
       </c>
       <c r="V13" t="n">
-        <v>843.686063188268</v>
+        <v>1142.062977707837</v>
       </c>
       <c r="W13" t="n">
-        <v>578.0954564501385</v>
+        <v>867.2105738803504</v>
       </c>
       <c r="X13" t="n">
-        <v>578.0954564501385</v>
+        <v>624.6466773261554</v>
       </c>
       <c r="Y13" t="n">
-        <v>578.0954564501385</v>
+        <v>398.3039090158975</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.5113210510684</v>
+        <v>1085.700933220784</v>
       </c>
       <c r="C14" t="n">
-        <v>180.5113210510684</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D14" t="n">
-        <v>180.5113210510684</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E14" t="n">
         <v>36.27616607839228</v>
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J14" t="n">
         <v>184.2963411149077</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250296</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303099</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W14" t="n">
-        <v>1417.416954219961</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="X14" t="n">
-        <v>1005.696955387708</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="Y14" t="n">
-        <v>600.3596853425985</v>
+        <v>1085.700933220784</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
         <v>267.3889916489643</v>
@@ -5354,55 +5354,55 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>921.7487118335988</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U15" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>404.1166074924968</v>
+        <v>750.6921614906305</v>
       </c>
       <c r="C16" t="n">
-        <v>404.1166074924968</v>
+        <v>750.6921614906305</v>
       </c>
       <c r="D16" t="n">
-        <v>404.1166074924968</v>
+        <v>587.3753886174012</v>
       </c>
       <c r="E16" t="n">
-        <v>404.1166074924968</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="F16" t="n">
-        <v>232.2548332670573</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>606.7836421246718</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M16" t="n">
-        <v>1055.701197344776</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N16" t="n">
-        <v>1152.699903436724</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O16" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5466,22 +5466,22 @@
         <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>1657.330917251774</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U16" t="n">
-        <v>1377.189215734279</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V16" t="n">
-        <v>1095.477748342307</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="W16" t="n">
-        <v>820.6253445148204</v>
+        <v>940.8581302026962</v>
       </c>
       <c r="X16" t="n">
-        <v>820.6253445148204</v>
+        <v>940.8581302026962</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.2825762045625</v>
+        <v>940.8581302026962</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.8702704688479</v>
+        <v>988.6226695829744</v>
       </c>
       <c r="C17" t="n">
-        <v>242.8702704688479</v>
+        <v>561.7219395962745</v>
       </c>
       <c r="D17" t="n">
-        <v>242.8702704688479</v>
+        <v>561.7219395962745</v>
       </c>
       <c r="E17" t="n">
-        <v>242.8702704688479</v>
+        <v>561.7219395962745</v>
       </c>
       <c r="F17" t="n">
-        <v>242.8702704688479</v>
+        <v>561.7219395962745</v>
       </c>
       <c r="G17" t="n">
-        <v>242.8702704688479</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303102</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5551,16 +5551,16 @@
         <v>1813.808303919614</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.318889045863</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W17" t="n">
-        <v>1059.92753934621</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X17" t="n">
-        <v>648.2075405139576</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.8702704688479</v>
+        <v>1408.471033874504</v>
       </c>
     </row>
     <row r="18">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>873.0242029511244</v>
+        <v>456.3112354981571</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0516398300404</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="D19" t="n">
-        <v>537.7348669568111</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="E19" t="n">
-        <v>371.5266611096646</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="F19" t="n">
-        <v>199.664886884225</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L19" t="n">
-        <v>556.3346842424261</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M19" t="n">
-        <v>654.3880318200453</v>
+        <v>1157.206471898203</v>
       </c>
       <c r="N19" t="n">
-        <v>1102.831680612252</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O19" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5703,22 +5703,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.808303919614</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>1532.096836527643</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W19" t="n">
-        <v>1532.096836527643</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X19" t="n">
-        <v>1289.532939973448</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y19" t="n">
-        <v>1063.19017166319</v>
+        <v>494.548000460063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1133.548788392143</v>
+        <v>980.0439299362504</v>
       </c>
       <c r="C20" t="n">
-        <v>1133.548788392143</v>
+        <v>980.0439299362504</v>
       </c>
       <c r="D20" t="n">
-        <v>1133.548788392143</v>
+        <v>980.0439299362504</v>
       </c>
       <c r="E20" t="n">
-        <v>1133.548788392143</v>
+        <v>554.0669900841079</v>
       </c>
       <c r="F20" t="n">
-        <v>708.4246065815437</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
-        <v>305.8326570113433</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M20" t="n">
         <v>862.6140377103484</v>
@@ -5785,19 +5785,19 @@
         <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1491.038203265894</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1133.548788392143</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W20" t="n">
-        <v>1133.548788392143</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="X20" t="n">
-        <v>1133.548788392143</v>
+        <v>980.0439299362504</v>
       </c>
       <c r="Y20" t="n">
-        <v>1133.548788392143</v>
+        <v>980.0439299362504</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>590.33890554562</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>766.977756376269</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>976.252454857284</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1193.4074366896</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1388.451103677087</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1541.84921852344</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.1105034249158</v>
+        <v>543.4272762981451</v>
       </c>
       <c r="C22" t="n">
-        <v>208.1379403038318</v>
+        <v>371.4547131770611</v>
       </c>
       <c r="D22" t="n">
         <v>208.1379403038318</v>
@@ -5919,16 +5919,16 @@
         <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>1055.701197344776</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.699903436724</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1595.747008220892</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1595.747008220892</v>
+        <v>1568.897812382056</v>
       </c>
       <c r="V22" t="n">
-        <v>1314.035540828921</v>
+        <v>1287.186344990085</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.183137001434</v>
+        <v>1012.333941162598</v>
       </c>
       <c r="X22" t="n">
-        <v>796.6192404472395</v>
+        <v>769.7700446084031</v>
       </c>
       <c r="Y22" t="n">
-        <v>570.2764721369815</v>
+        <v>543.4272762981451</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1174.391295261547</v>
+        <v>878.71957203067</v>
       </c>
       <c r="C23" t="n">
-        <v>747.4905652748473</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="D23" t="n">
-        <v>324.1979444598476</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="E23" t="n">
-        <v>324.1979444598476</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1979444598476</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0442972147721</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376787</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385796</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N23" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O23" t="n">
         <v>1890.36537379155</v>
       </c>
       <c r="P23" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q23" t="n">
         <v>2382.200022306145</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S23" t="n">
-        <v>2436.208586465216</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T23" t="n">
-        <v>2225.301688359271</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="U23" t="n">
-        <v>1967.129872919807</v>
+        <v>2449.657605481436</v>
       </c>
       <c r="V23" t="n">
-        <v>1609.640458046057</v>
+        <v>2092.168190607686</v>
       </c>
       <c r="W23" t="n">
-        <v>1594.239659553077</v>
+        <v>1695.776840908032</v>
       </c>
       <c r="X23" t="n">
-        <v>1594.239659553077</v>
+        <v>1284.05684207578</v>
       </c>
       <c r="Y23" t="n">
-        <v>1594.239659553077</v>
+        <v>878.71957203067</v>
       </c>
     </row>
     <row r="24">
@@ -6050,22 +6050,22 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D24" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E24" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F24" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G24" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432213</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J24" t="n">
         <v>183.4593521567757</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>791.6269942085879</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C25" t="n">
-        <v>619.6544310875039</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D25" t="n">
-        <v>456.3376582142746</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E25" t="n">
-        <v>386.8605775027877</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F25" t="n">
-        <v>214.9988032773481</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G25" t="n">
-        <v>49.76845418497137</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H25" t="n">
-        <v>49.76845418497137</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497137</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J25" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K25" t="n">
-        <v>196.621835802608</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L25" t="n">
-        <v>700.9042968835935</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M25" t="n">
-        <v>1249.815083252874</v>
+        <v>1575.019409015117</v>
       </c>
       <c r="N25" t="n">
-        <v>1781.281237765161</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O25" t="n">
-        <v>2278.929871361244</v>
+        <v>2329.004093722541</v>
       </c>
       <c r="P25" t="n">
-        <v>2378.467090017191</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R25" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.178859184711</v>
+        <v>2336.178859184712</v>
       </c>
       <c r="T25" t="n">
-        <v>2097.225981304191</v>
+        <v>2097.225981304192</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.097530292499</v>
+        <v>2081.215820317949</v>
       </c>
       <c r="V25" t="n">
-        <v>1535.386062900528</v>
+        <v>1799.504352925978</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.533659073041</v>
+        <v>1524.651949098491</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.969762518846</v>
+        <v>1282.088052544296</v>
       </c>
       <c r="Y25" t="n">
-        <v>791.6269942085879</v>
+        <v>1282.088052544296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1686.694089503806</v>
+        <v>1040.610177973731</v>
       </c>
       <c r="C26" t="n">
-        <v>1686.694089503806</v>
+        <v>613.7094479870314</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.401468688806</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="E26" t="n">
-        <v>1151.372514129446</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="F26" t="n">
-        <v>726.2483323188462</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G26" t="n">
         <v>324.1979444598476</v>
@@ -6223,16 +6223,16 @@
         <v>49.76845418497137</v>
       </c>
       <c r="I26" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147721</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486622</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376788</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L26" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385796</v>
       </c>
       <c r="M26" t="n">
         <v>1186.099811633997</v>
@@ -6256,22 +6256,22 @@
         <v>2488.422709248568</v>
       </c>
       <c r="T26" t="n">
-        <v>2488.422709248568</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="U26" t="n">
-        <v>2488.422709248568</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="V26" t="n">
-        <v>2488.422709248568</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="W26" t="n">
-        <v>2092.031359548915</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="X26" t="n">
-        <v>2092.031359548915</v>
+        <v>1865.795812310371</v>
       </c>
       <c r="Y26" t="n">
-        <v>1686.694089503806</v>
+        <v>1460.458542265261</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>49.76845418497137</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432213</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J27" t="n">
         <v>183.4593521567757</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.922083832231</v>
+        <v>601.4610254965223</v>
       </c>
       <c r="C28" t="n">
-        <v>919.9495207111468</v>
+        <v>429.4884623754383</v>
       </c>
       <c r="D28" t="n">
-        <v>756.6327478379175</v>
+        <v>429.4884623754383</v>
       </c>
       <c r="E28" t="n">
-        <v>590.424541990771</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F28" t="n">
-        <v>418.5627677653314</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G28" t="n">
-        <v>253.3324186729547</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I28" t="n">
         <v>49.76845418497137</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362856</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K28" t="n">
-        <v>471.7114543771702</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L28" t="n">
-        <v>599.6050218669907</v>
+        <v>700.9042968835935</v>
       </c>
       <c r="M28" t="n">
-        <v>1148.515808236271</v>
+        <v>1249.815083252874</v>
       </c>
       <c r="N28" t="n">
-        <v>1679.981962748558</v>
+        <v>1781.281237765161</v>
       </c>
       <c r="O28" t="n">
-        <v>2177.630596344642</v>
+        <v>2278.929871361244</v>
       </c>
       <c r="P28" t="n">
-        <v>2277.167815000588</v>
+        <v>2428.541312378487</v>
       </c>
       <c r="Q28" t="n">
         <v>2488.422709248568</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.544691879675</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S28" t="n">
-        <v>2487.544691879675</v>
+        <v>2336.178859184711</v>
       </c>
       <c r="T28" t="n">
-        <v>2487.544691879675</v>
+        <v>2097.225981304191</v>
       </c>
       <c r="U28" t="n">
-        <v>2207.416240867982</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V28" t="n">
-        <v>1925.704773476011</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W28" t="n">
-        <v>1650.852369648524</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X28" t="n">
-        <v>1508.430820854554</v>
+        <v>1017.969762518846</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.088052544296</v>
+        <v>791.6269942085879</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2068.574344957039</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C29" t="n">
-        <v>1641.673614970339</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D29" t="n">
-        <v>1577.349453981589</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E29" t="n">
-        <v>1151.372514129446</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F29" t="n">
-        <v>726.2483323188463</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="G29" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H29" t="n">
         <v>49.76845418497138</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486617</v>
+        <v>263.3013860486623</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376783</v>
+        <v>513.2289698376788</v>
       </c>
       <c r="L29" t="n">
-        <v>829.2827739385792</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M29" t="n">
         <v>1186.099811633997</v>
@@ -6478,10 +6478,10 @@
         <v>1549.440265901614</v>
       </c>
       <c r="O29" t="n">
-        <v>1890.365373791549</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P29" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q29" t="n">
         <v>2382.200022306145</v>
@@ -6508,7 +6508,7 @@
         <v>2488.422709248569</v>
       </c>
       <c r="Y29" t="n">
-        <v>2488.422709248569</v>
+        <v>2170.911290940943</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>49.76845418497138</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432215</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0655064016224</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K30" t="n">
-        <v>339.6930667592873</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L30" t="n">
-        <v>577.994914754343</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M30" t="n">
-        <v>859.2274224705418</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N30" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O30" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P30" t="n">
-        <v>1620.486649455022</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q30" t="n">
         <v>1766.562892296344</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>753.7048755603801</v>
+        <v>839.5358860081487</v>
       </c>
       <c r="C31" t="n">
-        <v>581.732312439296</v>
+        <v>667.5633228870647</v>
       </c>
       <c r="D31" t="n">
-        <v>418.4155395660667</v>
+        <v>504.2465500138354</v>
       </c>
       <c r="E31" t="n">
-        <v>252.2073337189203</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="F31" t="n">
-        <v>80.34555949348072</v>
+        <v>283.8940898179999</v>
       </c>
       <c r="G31" t="n">
-        <v>49.76845418497138</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H31" t="n">
-        <v>49.76845418497138</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I31" t="n">
         <v>49.76845418497138</v>
@@ -6624,49 +6624,49 @@
         <v>178.3974764362856</v>
       </c>
       <c r="K31" t="n">
-        <v>521.826161564851</v>
+        <v>274.5435524508289</v>
       </c>
       <c r="L31" t="n">
-        <v>750.9785192448903</v>
+        <v>402.4371199406494</v>
       </c>
       <c r="M31" t="n">
-        <v>1299.889305614171</v>
+        <v>951.3479063099301</v>
       </c>
       <c r="N31" t="n">
-        <v>1831.355460126458</v>
+        <v>1482.814060822217</v>
       </c>
       <c r="O31" t="n">
-        <v>2329.004093722541</v>
+        <v>1980.4626944183</v>
       </c>
       <c r="P31" t="n">
-        <v>2428.541312378488</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q31" t="n">
         <v>2488.422709248569</v>
       </c>
       <c r="R31" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S31" t="n">
-        <v>2488.422709248569</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T31" t="n">
-        <v>2249.469831368049</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="U31" t="n">
-        <v>1969.341380356357</v>
+        <v>2055.172390804125</v>
       </c>
       <c r="V31" t="n">
-        <v>1687.629912964386</v>
+        <v>1773.460923412154</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.777509136899</v>
+        <v>1498.608519584667</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.213612582704</v>
+        <v>1256.044623030472</v>
       </c>
       <c r="Y31" t="n">
-        <v>943.8708442724458</v>
+        <v>1029.701854720214</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>726.2483323188463</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C32" t="n">
-        <v>726.2483323188463</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D32" t="n">
-        <v>726.2483323188463</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E32" t="n">
-        <v>726.2483323188463</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F32" t="n">
-        <v>726.2483323188463</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="G32" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H32" t="n">
         <v>49.76845418497138</v>
       </c>
       <c r="I32" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147725</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K32" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376792</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385797</v>
+        <v>829.28277393858</v>
       </c>
       <c r="M32" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O32" t="n">
         <v>1890.36537379155</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
         <v>2382.200022306145</v>
@@ -6727,25 +6727,25 @@
         <v>2488.422709248569</v>
       </c>
       <c r="S32" t="n">
-        <v>2436.208586465216</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T32" t="n">
-        <v>2225.301688359271</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="U32" t="n">
-        <v>1967.129872919808</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="V32" t="n">
-        <v>1609.640458046057</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="W32" t="n">
-        <v>1213.249108346404</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="X32" t="n">
-        <v>801.5291095141515</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="Y32" t="n">
-        <v>726.2483323188463</v>
+        <v>2170.911290940943</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>992.6577534408998</v>
+        <v>875.435411955116</v>
       </c>
       <c r="C34" t="n">
-        <v>820.6851903198158</v>
+        <v>875.435411955116</v>
       </c>
       <c r="D34" t="n">
-        <v>756.6327478379175</v>
+        <v>712.1186390818867</v>
       </c>
       <c r="E34" t="n">
-        <v>590.424541990771</v>
+        <v>545.9104332347403</v>
       </c>
       <c r="F34" t="n">
-        <v>418.5627677653314</v>
+        <v>374.0486590093006</v>
       </c>
       <c r="G34" t="n">
-        <v>253.3324186729547</v>
+        <v>208.8183099169239</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6637407256232</v>
+        <v>74.14963196959243</v>
       </c>
       <c r="I34" t="n">
         <v>49.76845418497138</v>
@@ -6861,49 +6861,49 @@
         <v>100.4757597880648</v>
       </c>
       <c r="K34" t="n">
-        <v>196.621835802608</v>
+        <v>246.6960581639049</v>
       </c>
       <c r="L34" t="n">
-        <v>700.9042968835935</v>
+        <v>750.9785192448903</v>
       </c>
       <c r="M34" t="n">
-        <v>1249.815083252874</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N34" t="n">
-        <v>1781.281237765161</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O34" t="n">
-        <v>2278.929871361244</v>
+        <v>2329.004093722541</v>
       </c>
       <c r="P34" t="n">
-        <v>2378.467090017191</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q34" t="n">
         <v>2488.422709248569</v>
       </c>
       <c r="R34" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S34" t="n">
-        <v>2488.422709248569</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T34" t="n">
-        <v>2488.422709248569</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.294258236876</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V34" t="n">
-        <v>1926.582790844905</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W34" t="n">
-        <v>1651.730387017418</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="X34" t="n">
-        <v>1409.166490463223</v>
+        <v>1291.94414897744</v>
       </c>
       <c r="Y34" t="n">
-        <v>1182.823722152966</v>
+        <v>1065.601380667182</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1682.327821891813</v>
+        <v>1265.463231129757</v>
       </c>
       <c r="C35" t="n">
-        <v>1682.327821891813</v>
+        <v>1265.463231129757</v>
       </c>
       <c r="D35" t="n">
-        <v>1577.349453981589</v>
+        <v>842.1706103147571</v>
       </c>
       <c r="E35" t="n">
-        <v>1151.372514129446</v>
+        <v>842.1706103147571</v>
       </c>
       <c r="F35" t="n">
         <v>726.2483323188463</v>
@@ -6964,25 +6964,25 @@
         <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2436.208586465216</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T35" t="n">
-        <v>2436.208586465216</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="U35" t="n">
-        <v>2436.208586465216</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="V35" t="n">
-        <v>2078.719171591466</v>
+        <v>1661.85458082941</v>
       </c>
       <c r="W35" t="n">
-        <v>1682.327821891813</v>
+        <v>1265.463231129757</v>
       </c>
       <c r="X35" t="n">
-        <v>1682.327821891813</v>
+        <v>1265.463231129757</v>
       </c>
       <c r="Y35" t="n">
-        <v>1682.327821891813</v>
+        <v>1265.463231129757</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>75.07978914432215</v>
       </c>
       <c r="J36" t="n">
-        <v>183.4593521567757</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K36" t="n">
-        <v>355.0869125144405</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L36" t="n">
-        <v>593.3887605094963</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M36" t="n">
-        <v>874.6212682256951</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N36" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P36" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541191</v>
       </c>
       <c r="R36" t="n">
         <v>1817.643160879484</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.779736072006</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="C37" t="n">
-        <v>819.807172950922</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="D37" t="n">
-        <v>656.4904000776927</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E37" t="n">
-        <v>490.2821942305462</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F37" t="n">
         <v>418.5627677653314</v>
@@ -7095,25 +7095,25 @@
         <v>49.76845418497138</v>
       </c>
       <c r="J37" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K37" t="n">
-        <v>196.621835802608</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L37" t="n">
-        <v>700.9042968835935</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M37" t="n">
-        <v>1249.815083252874</v>
+        <v>1575.019409015117</v>
       </c>
       <c r="N37" t="n">
-        <v>1781.281237765161</v>
+        <v>1744.928082478454</v>
       </c>
       <c r="O37" t="n">
-        <v>2278.929871361244</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P37" t="n">
-        <v>2428.541312378488</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q37" t="n">
         <v>2488.422709248569</v>
@@ -7122,25 +7122,25 @@
         <v>2487.544691879675</v>
       </c>
       <c r="S37" t="n">
-        <v>2487.544691879675</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T37" t="n">
-        <v>2487.544691879675</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U37" t="n">
-        <v>2207.416240867983</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V37" t="n">
-        <v>1925.704773476011</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W37" t="n">
-        <v>1650.852369648524</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="X37" t="n">
-        <v>1408.28847309433</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y37" t="n">
-        <v>1181.945704784072</v>
+        <v>790.7489768396946</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1672.182995257386</v>
+        <v>1004.307642160819</v>
       </c>
       <c r="C38" t="n">
-        <v>1672.182995257386</v>
+        <v>1004.307642160819</v>
       </c>
       <c r="D38" t="n">
-        <v>1248.890374442386</v>
+        <v>1004.307642160819</v>
       </c>
       <c r="E38" t="n">
-        <v>822.9134345902438</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F38" t="n">
-        <v>726.2483323188463</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G38" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H38" t="n">
         <v>49.76845418497138</v>
       </c>
       <c r="I38" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J38" t="n">
         <v>263.3013860486624</v>
@@ -7180,7 +7180,7 @@
         <v>513.228969837679</v>
       </c>
       <c r="L38" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M38" t="n">
         <v>1186.099811633997</v>
@@ -7201,25 +7201,25 @@
         <v>2488.422709248569</v>
       </c>
       <c r="S38" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T38" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U38" t="n">
-        <v>2488.422709248569</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V38" t="n">
-        <v>2488.422709248569</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W38" t="n">
-        <v>2092.031359548916</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="X38" t="n">
-        <v>2092.031359548916</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="Y38" t="n">
-        <v>2092.031359548916</v>
+        <v>1424.156006452349</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>49.76845418497138</v>
       </c>
       <c r="I39" t="n">
-        <v>75.07978914432215</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J39" t="n">
         <v>183.4593521567757</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>600.583008127629</v>
+        <v>856.8185914444325</v>
       </c>
       <c r="C40" t="n">
-        <v>428.610445006545</v>
+        <v>684.8460283233485</v>
       </c>
       <c r="D40" t="n">
-        <v>265.2936721333157</v>
+        <v>521.5292554501192</v>
       </c>
       <c r="E40" t="n">
-        <v>99.08546628616924</v>
+        <v>521.5292554501192</v>
       </c>
       <c r="F40" t="n">
-        <v>49.76845418497138</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G40" t="n">
-        <v>49.76845418497138</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H40" t="n">
         <v>49.76845418497138</v>
@@ -7338,16 +7338,16 @@
         <v>521.826161564851</v>
       </c>
       <c r="L40" t="n">
-        <v>664.551141596887</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M40" t="n">
-        <v>1213.461927966168</v>
+        <v>1575.019409015117</v>
       </c>
       <c r="N40" t="n">
-        <v>1744.928082478454</v>
+        <v>2057.684287051762</v>
       </c>
       <c r="O40" t="n">
-        <v>1864.874391771335</v>
+        <v>2177.630596344642</v>
       </c>
       <c r="P40" t="n">
         <v>2277.167815000589</v>
@@ -7356,28 +7356,28 @@
         <v>2488.422709248569</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.544691879675</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S40" t="n">
-        <v>2335.300841815818</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T40" t="n">
-        <v>2096.347963935298</v>
+        <v>2249.469831368049</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.219512923606</v>
+        <v>1969.341380356357</v>
       </c>
       <c r="V40" t="n">
-        <v>1534.508045531634</v>
+        <v>1687.629912964386</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.655641704147</v>
+        <v>1412.777509136899</v>
       </c>
       <c r="X40" t="n">
-        <v>1017.091745149953</v>
+        <v>1273.327328466756</v>
       </c>
       <c r="Y40" t="n">
-        <v>790.7489768396946</v>
+        <v>1046.984560156498</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1324.162196662713</v>
+        <v>1149.540953133846</v>
       </c>
       <c r="C41" t="n">
-        <v>1324.162196662713</v>
+        <v>1149.540953133846</v>
       </c>
       <c r="D41" t="n">
-        <v>900.8695758477136</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="E41" t="n">
-        <v>474.8926359955712</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="F41" t="n">
-        <v>49.76845418497138</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="G41" t="n">
-        <v>49.76845418497138</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H41" t="n">
-        <v>49.76845418497138</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I41" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147721</v>
       </c>
       <c r="J41" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486622</v>
       </c>
       <c r="K41" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385796</v>
       </c>
       <c r="M41" t="n">
         <v>1186.099811633997</v>
@@ -7435,7 +7435,7 @@
         <v>2382.200022306145</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S41" t="n">
         <v>2436.208586465216</v>
@@ -7444,19 +7444,19 @@
         <v>2225.301688359271</v>
       </c>
       <c r="U41" t="n">
-        <v>1967.129872919808</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="V41" t="n">
         <v>1609.640458046057</v>
       </c>
       <c r="W41" t="n">
-        <v>1324.162196662713</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X41" t="n">
-        <v>1324.162196662713</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y41" t="n">
-        <v>1324.162196662713</v>
+        <v>1213.249108346404</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D42" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E42" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F42" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G42" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H42" t="n">
-        <v>49.76845418497138</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432215</v>
+        <v>75.07978914432213</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0655064016224</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K42" t="n">
-        <v>339.6930667592873</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L42" t="n">
-        <v>577.994914754343</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M42" t="n">
-        <v>859.2274224705418</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O42" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P42" t="n">
-        <v>1620.486649455022</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q42" t="n">
         <v>1766.562892296344</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1028.557279387867</v>
+        <v>942.9928269035515</v>
       </c>
       <c r="C43" t="n">
-        <v>856.5847162667831</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D43" t="n">
-        <v>693.2679433935538</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E43" t="n">
-        <v>527.0597375464073</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F43" t="n">
-        <v>355.1979633209677</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G43" t="n">
-        <v>189.967614228591</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H43" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I43" t="n">
-        <v>49.76845418497138</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="J43" t="n">
-        <v>150.5499821493616</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K43" t="n">
-        <v>246.6960581639049</v>
+        <v>246.6960581639044</v>
       </c>
       <c r="L43" t="n">
-        <v>750.9785192448903</v>
+        <v>750.9785192448899</v>
       </c>
       <c r="M43" t="n">
         <v>1299.889305614171</v>
       </c>
       <c r="N43" t="n">
-        <v>1831.355460126458</v>
+        <v>1831.355460126457</v>
       </c>
       <c r="O43" t="n">
         <v>2329.004093722541</v>
       </c>
       <c r="P43" t="n">
-        <v>2428.541312378488</v>
+        <v>2428.541312378487</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R43" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S43" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T43" t="n">
-        <v>2249.469831368049</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U43" t="n">
-        <v>1969.341380356357</v>
+        <v>1968.463362987462</v>
       </c>
       <c r="V43" t="n">
-        <v>1687.629912964386</v>
+        <v>1686.751895595491</v>
       </c>
       <c r="W43" t="n">
-        <v>1687.629912964386</v>
+        <v>1411.899491768004</v>
       </c>
       <c r="X43" t="n">
-        <v>1445.066016410191</v>
+        <v>1169.335595213809</v>
       </c>
       <c r="Y43" t="n">
-        <v>1218.723248099933</v>
+        <v>942.9928269035515</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2016.360222173686</v>
+        <v>807.9118383012946</v>
       </c>
       <c r="C44" t="n">
-        <v>1589.459492186986</v>
+        <v>807.9118383012946</v>
       </c>
       <c r="D44" t="n">
-        <v>1577.349453981589</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="E44" t="n">
-        <v>1151.372514129446</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="F44" t="n">
         <v>726.2483323188463</v>
@@ -7654,7 +7654,7 @@
         <v>513.228969837679</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385798</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M44" t="n">
         <v>1186.099811633997</v>
@@ -7666,7 +7666,7 @@
         <v>1890.36537379155</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q44" t="n">
         <v>2382.200022306145</v>
@@ -7678,22 +7678,22 @@
         <v>2436.208586465216</v>
       </c>
       <c r="T44" t="n">
-        <v>2436.208586465216</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U44" t="n">
-        <v>2436.208586465216</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V44" t="n">
-        <v>2436.208586465216</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W44" t="n">
-        <v>2436.208586465216</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X44" t="n">
-        <v>2436.208586465216</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y44" t="n">
-        <v>2436.208586465216</v>
+        <v>807.9118383012946</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.922083832231</v>
+        <v>1033.31287339389</v>
       </c>
       <c r="C46" t="n">
-        <v>919.9495207111468</v>
+        <v>861.3403102728055</v>
       </c>
       <c r="D46" t="n">
-        <v>756.6327478379175</v>
+        <v>698.0235373995762</v>
       </c>
       <c r="E46" t="n">
-        <v>590.424541990771</v>
+        <v>531.8153315524297</v>
       </c>
       <c r="F46" t="n">
-        <v>418.5627677653314</v>
+        <v>359.9535573269901</v>
       </c>
       <c r="G46" t="n">
-        <v>253.3324186729547</v>
+        <v>194.7232082346134</v>
       </c>
       <c r="H46" t="n">
         <v>118.6637407256232</v>
@@ -7806,52 +7806,52 @@
         <v>49.76845418497138</v>
       </c>
       <c r="J46" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K46" t="n">
-        <v>196.621835802608</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L46" t="n">
-        <v>700.9042968835935</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M46" t="n">
-        <v>1249.815083252874</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N46" t="n">
-        <v>1781.281237765161</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O46" t="n">
-        <v>2278.929871361244</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P46" t="n">
-        <v>2378.467090017191</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q46" t="n">
         <v>2488.422709248569</v>
       </c>
       <c r="R46" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.178859184712</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T46" t="n">
-        <v>2336.178859184712</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U46" t="n">
-        <v>2307.558588628207</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V46" t="n">
-        <v>2025.847121236236</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W46" t="n">
-        <v>1750.994717408749</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="X46" t="n">
-        <v>1508.430820854554</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.088052544296</v>
+        <v>1033.31287339389</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.01535248059631</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N13" t="n">
-        <v>73.6817446753505</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>94.06963836310769</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>129.6673480105722</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>164.3028390962586</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>226.5842672792888</v>
       </c>
       <c r="N19" t="n">
-        <v>354.9948916164229</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>366.2873004017981</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.01535248059636</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9567,19 +9567,19 @@
         <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>45.3448822271198</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J24" t="n">
-        <v>15.54933914661942</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,7 +9807,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>124.1442620615495</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.5800225871681</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J27" t="n">
-        <v>15.54933914661942</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>199.1594968952943</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>50.58002258716814</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>15.54933914661947</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2816062527463</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>199.1594968952947</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>50.58002258716849</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.58002258716856</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>15.5493391466194</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>15.54933914661953</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,16 +10755,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>36.84388059891984</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>50.5800225871686</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J39" t="n">
-        <v>15.5493391466194</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>14.9812247901167</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>352.7592387537759</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.54933914661947</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.5800225871685</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>50.58002258716806</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085774</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.58002258716856</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>211.1217173020636</v>
+        <v>275.0294180437662</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.5660300744983</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7976900974317</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>9.169179118463887</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>224.4780682763354</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>278.9243670306716</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.2598870542447</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>77.72703093966419</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>155.5507158500179</v>
       </c>
       <c r="H17" t="n">
-        <v>72.64783821167191</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>150.4099117126581</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.063708683998641</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>306.8260543013336</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.31507553460148</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24180,10 +24180,10 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>21.71024308498428</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>34.87889788013808</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24220,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>217.2126445556071</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>377.1806456946067</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76381388430295</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>261.4771071251953</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>132.4433061149377</v>
       </c>
       <c r="E26" t="n">
-        <v>310.8085054398548</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>51.69198155551913</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.5900972850689</v>
@@ -24505,10 +24505,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>122.3445177647509</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S28" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>99.14092428262305</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>355.3787752279868</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>86.94759322010913</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>116.540344677983</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.3067113460287</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>326.7559279213065</v>
+        <v>86.94759322010913</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>98.27168708741766</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>44.06896766847046</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>315.1311103757279</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>306.1098847765421</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>154.4892423131856</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.14092428262249</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>295.6261983304343</v>
       </c>
       <c r="F38" t="n">
-        <v>325.1744887438102</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>121.3193145029993</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>68.2063336752453</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>102.082578725212</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>352.5788069881825</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>109.803957433146</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>147.4399643593924</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>62.7311563999201</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>150.7214115632189</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>407.0707567835061</v>
+        <v>338.212823684226</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>58.0231183339579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>248.9930986506364</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363438.6945927749</v>
+        <v>363438.6945927748</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363438.6945927748</v>
+        <v>363438.694592775</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>438744.6660998267</v>
+        <v>438744.6660998268</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>438744.6660998269</v>
+        <v>438744.6660998267</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438744.6660998269</v>
+        <v>438744.6660998268</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>358598.2571328956</v>
       </c>
       <c r="C2" t="n">
-        <v>358598.2571328955</v>
+        <v>358598.2571328956</v>
       </c>
       <c r="D2" t="n">
-        <v>358598.2571328955</v>
+        <v>358598.2571328956</v>
       </c>
       <c r="E2" t="n">
-        <v>192211.6033177298</v>
+        <v>192211.6033177297</v>
       </c>
       <c r="F2" t="n">
         <v>192211.6033177296</v>
       </c>
       <c r="G2" t="n">
-        <v>192211.6033177297</v>
+        <v>192211.6033177296</v>
       </c>
       <c r="H2" t="n">
         <v>192211.6033177297</v>
@@ -26349,13 +26349,13 @@
         <v>236002.5872513551</v>
       </c>
       <c r="N2" t="n">
-        <v>236002.587251355</v>
+        <v>236002.5872513551</v>
       </c>
       <c r="O2" t="n">
         <v>236002.587251355</v>
       </c>
       <c r="P2" t="n">
-        <v>236002.587251355</v>
+        <v>236002.5872513551</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696161</v>
+        <v>145239.9140696162</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>17851.02027559606</v>
       </c>
       <c r="F4" t="n">
-        <v>17851.02027559607</v>
+        <v>17851.02027559606</v>
       </c>
       <c r="G4" t="n">
-        <v>17851.02027559606</v>
+        <v>17851.02027559605</v>
       </c>
       <c r="H4" t="n">
         <v>17851.02027559606</v>
       </c>
       <c r="I4" t="n">
-        <v>14436.37642373354</v>
+        <v>14436.37642373355</v>
       </c>
       <c r="J4" t="n">
         <v>14436.37642373354</v>
@@ -26456,7 +26456,7 @@
         <v>14436.37642373355</v>
       </c>
       <c r="O4" t="n">
-        <v>14436.37642373355</v>
+        <v>14436.37642373354</v>
       </c>
       <c r="P4" t="n">
         <v>14436.37642373355</v>
@@ -26490,7 +26490,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="J5" t="n">
         <v>50110.82600576626</v>
@@ -26508,7 +26508,7 @@
         <v>50110.82600576627</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.82600576627</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="P5" t="n">
         <v>50110.82600576627</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6158.681779757433</v>
+        <v>6136.968138261143</v>
       </c>
       <c r="C6" t="n">
-        <v>6158.681779757317</v>
+        <v>6136.968138261143</v>
       </c>
       <c r="D6" t="n">
-        <v>6158.681779757375</v>
+        <v>6136.968138261085</v>
       </c>
       <c r="E6" t="n">
-        <v>-343642.3676133995</v>
+        <v>-344329.6278701565</v>
       </c>
       <c r="F6" t="n">
-        <v>137411.282229092</v>
+        <v>136724.021972335</v>
       </c>
       <c r="G6" t="n">
-        <v>137411.2822290921</v>
+        <v>136724.021972335</v>
       </c>
       <c r="H6" t="n">
-        <v>137411.2822290921</v>
+        <v>136724.0219723351</v>
       </c>
       <c r="I6" t="n">
-        <v>26215.47075223902</v>
+        <v>25703.37443121655</v>
       </c>
       <c r="J6" t="n">
-        <v>171455.3848218552</v>
+        <v>170943.2885008327</v>
       </c>
       <c r="K6" t="n">
-        <v>171455.3848218553</v>
+        <v>170943.2885008328</v>
       </c>
       <c r="L6" t="n">
-        <v>171455.3848218553</v>
+        <v>170943.2885008328</v>
       </c>
       <c r="M6" t="n">
-        <v>58453.31367935937</v>
+        <v>57941.2173583369</v>
       </c>
       <c r="N6" t="n">
-        <v>171455.3848218552</v>
+        <v>170943.2885008327</v>
       </c>
       <c r="O6" t="n">
-        <v>171455.3848218552</v>
+        <v>170943.2885008327</v>
       </c>
       <c r="P6" t="n">
-        <v>171455.3848218552</v>
+        <v>170943.2885008328</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>453.4520759799035</v>
@@ -26810,7 +26810,7 @@
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="J4" t="n">
         <v>622.1056773121421</v>
@@ -26828,7 +26828,7 @@
         <v>622.1056773121422</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121422</v>
+        <v>622.1056773121421</v>
       </c>
       <c r="P4" t="n">
         <v>622.1056773121422</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.6536013322386</v>
+        <v>168.6536013322387</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>23.20449936857808</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224785</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J44" t="n">
         <v>192.3059078026467</v>
@@ -35488,13 +35488,13 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>217.4384341277164</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
         <v>211.3885843242576</v>
@@ -35509,7 +35509,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M13" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N13" t="n">
-        <v>171.6602356773181</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
         <v>71.4556647890261</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
         <v>361.8756844398183</v>
@@ -35740,13 +35740,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>291.083443400973</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>223.0974723542309</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
-        <v>87.16477557810536</v>
+        <v>251.4676146743639</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>325.6280527112274</v>
       </c>
       <c r="N19" t="n">
-        <v>452.9733826183905</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
         <v>453.4520759799035</v>
@@ -36062,7 +36062,7 @@
         <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.3999059901982</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36287,19 +36287,19 @@
         <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>144.3886676590584</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
         <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J24" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K24" t="n">
         <v>173.3611720784494</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.21950060918526</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K25" t="n">
-        <v>97.11724849953865</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L25" t="n">
         <v>509.3762233141267</v>
@@ -36527,7 +36527,7 @@
         <v>554.4553397669501</v>
       </c>
       <c r="N25" t="n">
-        <v>536.8344995073601</v>
+        <v>258.925304152869</v>
       </c>
       <c r="O25" t="n">
         <v>502.6753874707916</v>
@@ -36536,7 +36536,7 @@
         <v>100.5426451070168</v>
       </c>
       <c r="Q25" t="n">
-        <v>111.0662820518965</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>208.5549183345976</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761853</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606463</v>
       </c>
       <c r="J27" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K27" t="n">
         <v>173.3611720784494</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043578</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2767453948329</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L28" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M28" t="n">
         <v>554.4553397669501</v>
@@ -36770,10 +36770,10 @@
         <v>502.6753874707916</v>
       </c>
       <c r="P28" t="n">
-        <v>100.5426451070168</v>
+        <v>151.122667694185</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3887820686668</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>319.2462667685867</v>
       </c>
       <c r="M29" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973912</v>
       </c>
       <c r="N29" t="n">
         <v>367.0105598662801</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J30" t="n">
         <v>93.92496692656596</v>
@@ -36931,7 +36931,7 @@
         <v>209.7259280209963</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.5517604457803</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R30" t="n">
         <v>51.59623089206052</v>
@@ -36992,10 +36992,10 @@
         <v>129.9283053043578</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L31" t="n">
-        <v>231.4670279596357</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M31" t="n">
         <v>554.4553397669501</v>
@@ -37007,10 +37007,10 @@
         <v>502.6753874707916</v>
       </c>
       <c r="P31" t="n">
-        <v>100.5426451070168</v>
+        <v>299.7021420023115</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.48625946472843</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>51.21950060918526</v>
       </c>
       <c r="K34" t="n">
-        <v>97.11724849953865</v>
+        <v>147.6972710867071</v>
       </c>
       <c r="L34" t="n">
         <v>509.3762233141267</v>
@@ -37247,7 +37247,7 @@
         <v>100.5426451070168</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.066282051897</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>25.56700500944522</v>
       </c>
       <c r="J36" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K36" t="n">
         <v>173.3611720784494</v>
@@ -37408,7 +37408,7 @@
         <v>132.0024212991608</v>
       </c>
       <c r="R36" t="n">
-        <v>51.59623089206052</v>
+        <v>67.14557003868005</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>51.21950060918526</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K37" t="n">
-        <v>97.11724849953865</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L37" t="n">
         <v>509.3762233141267</v>
@@ -37475,16 +37475,16 @@
         <v>554.4553397669501</v>
       </c>
       <c r="N37" t="n">
-        <v>536.8344995073601</v>
+        <v>171.6249226902394</v>
       </c>
       <c r="O37" t="n">
-        <v>502.6753874707916</v>
+        <v>121.1578881746267</v>
       </c>
       <c r="P37" t="n">
-        <v>151.1226676941854</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.48625946472843</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J39" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K39" t="n">
         <v>173.3611720784494</v>
@@ -37706,19 +37706,19 @@
         <v>346.8976617460256</v>
       </c>
       <c r="L40" t="n">
-        <v>144.1666464970061</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M40" t="n">
         <v>554.4553397669501</v>
       </c>
       <c r="N40" t="n">
-        <v>536.8344995073601</v>
+        <v>487.5402808450955</v>
       </c>
       <c r="O40" t="n">
         <v>121.1578881746267</v>
       </c>
       <c r="P40" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q40" t="n">
         <v>213.3887820686668</v>
@@ -37858,7 +37858,7 @@
         <v>25.56700500944522</v>
       </c>
       <c r="J42" t="n">
-        <v>93.92496692656596</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K42" t="n">
         <v>173.3611720784494</v>
@@ -37879,7 +37879,7 @@
         <v>209.7259280209963</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.5517604457803</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R42" t="n">
         <v>51.59623089206052</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.7995231963538</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K43" t="n">
-        <v>97.11724849953865</v>
+        <v>147.6972710867067</v>
       </c>
       <c r="L43" t="n">
         <v>509.3762233141267</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828434</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J44" t="n">
         <v>162.8859483170602</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.21950060918526</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K46" t="n">
-        <v>97.11724849953865</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
         <v>509.3762233141267</v>
       </c>
       <c r="M46" t="n">
-        <v>554.4553397669501</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N46" t="n">
-        <v>536.8344995073601</v>
+        <v>207.8200299221773</v>
       </c>
       <c r="O46" t="n">
         <v>502.6753874707916</v>
       </c>
       <c r="P46" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>111.066282051897</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
